--- a/deployment/Omaha_Cal_Info_RS03CCAL.xlsx
+++ b/deployment/Omaha_Cal_Info_RS03CCAL.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Moorings" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Asset_Cal_Info" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="IntegrationEvents" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Verification" sheetId="4" r:id="rId6"/>
+    <sheet name="Moorings" sheetId="1" r:id="rId1"/>
+    <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
+    <sheet name="IntegrationEvents" sheetId="3" r:id="rId3"/>
+    <sheet name="Verification" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -19,10 +27,18 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E3">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">significant change - please check
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>significant change - please check
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -35,18 +51,58 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E3">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">able to plot last 24 hours, but not all
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>significant change - please check
+	-Dan Mergens</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>able to plot last 24 hours, but not all
 	-Dan Mergens
 failed to plot twice, but added temperature and then worked
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A4">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">trailing space...
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>trailing space...
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -54,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Mooring OOIBARCODE</t>
   </si>
@@ -110,9 +166,6 @@
     <t>TN-313</t>
   </si>
   <si>
-    <t>ATAPL-58316-00003</t>
-  </si>
-  <si>
     <t>RS03CCAL-MJ03F-05-BOTPTA301</t>
   </si>
   <si>
@@ -122,9 +175,6 @@
     <t>130° 00.5256' W</t>
   </si>
   <si>
-    <t>ATAPL-58693-00003</t>
-  </si>
-  <si>
     <t xml:space="preserve">RS03CCAL-MJ03F-06-HYDLFA305 </t>
   </si>
   <si>
@@ -134,9 +184,6 @@
     <t>130° 00.5358' W</t>
   </si>
   <si>
-    <t>ATAPL-58328-00003</t>
-  </si>
-  <si>
     <t>RS03CCAL-MJ03F-06-OBSBBA301</t>
   </si>
   <si>
@@ -207,55 +254,76 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>RS03CCAL-MJ03F-06-HYDLFA305</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="166" formatCode="m&quot;/&quot;d&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -263,7 +331,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,6 +358,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -302,6 +371,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -312,198 +382,629 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.14"/>
-    <col customWidth="1" min="2" max="2" width="30.71"/>
-    <col customWidth="1" min="3" max="3" width="12.43"/>
-    <col customWidth="1" min="4" max="5" width="12.29"/>
-    <col customWidth="1" min="6" max="6" width="11.29"/>
-    <col customWidth="1" min="7" max="7" width="9.43"/>
-    <col customWidth="1" min="8" max="8" width="14.43"/>
-    <col customWidth="1" min="9" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="9.0"/>
-    <col customWidth="1" min="11" max="11" width="10.29"/>
-    <col customWidth="1" min="12" max="12" width="24.29"/>
-    <col customWidth="1" min="13" max="13" width="12.0"/>
-    <col customWidth="1" min="14" max="14" width="12.71"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1">
+    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +1044,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -554,10 +1055,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>41845.0</v>
+        <v>41845</v>
       </c>
       <c r="F2" s="9">
         <v>0.36944444444444446</v>
@@ -570,7 +1071,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="6">
-        <v>1526.0</v>
+        <v>1526</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>17</v>
@@ -579,133 +1080,136 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-58316-00003")</f>
+        <v>ATAPL-58316-00003</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="12">
-        <v>41845.0</v>
+        <v>41845</v>
       </c>
       <c r="F3" s="9">
-        <v>0.8784722222222222</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" s="7">
-        <v>1526.0</v>
+        <v>1526</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="13" t="str">
-        <f t="shared" ref="M3:M5" si="1">((LEFT(H3,(FIND("°",H3,1)-1)))+(MID(H3,(FIND("°",H3,1)+1),(FIND("'",H3,1))-(FIND("°",H3,1)+1))/60))*(IF(RIGHT(H3,1)="N",1,-1))</f>
-        <v>45.95484</v>
-      </c>
-      <c r="N3" s="13" t="str">
-        <f t="shared" ref="N3:N5" si="2">((LEFT(I3,(FIND("°",I3,1)-1)))+(MID(I3,(FIND("°",I3,1)+1),(FIND("'",I3,1))-(FIND("°",I3,1)+1))/60))*(IF(RIGHT(I3,1)="E",1,-1))</f>
+      <c r="M3" s="13">
+        <f t="shared" ref="M3:M5" si="0">((LEFT(H3,(FIND("°",H3,1)-1)))+(MID(H3,(FIND("°",H3,1)+1),(FIND("'",H3,1))-(FIND("°",H3,1)+1))/60))*(IF(RIGHT(H3,1)="N",1,-1))</f>
+        <v>45.954839999999997</v>
+      </c>
+      <c r="N3" s="13">
+        <f t="shared" ref="N3:N5" si="1">((LEFT(I3,(FIND("°",I3,1)-1)))+(MID(I3,(FIND("°",I3,1)+1),(FIND("'",I3,1))-(FIND("°",I3,1)+1))/60))*(IF(RIGHT(I3,1)="E",1,-1))</f>
         <v>-130.00876</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-58693-00003")</f>
+        <v>ATAPL-58693-00003</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="5">
-        <v>299467.0</v>
+        <v>299467</v>
       </c>
       <c r="D4" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="12">
-        <v>41846.0</v>
+        <v>41846</v>
       </c>
       <c r="F4" s="9">
         <v>0.8634722222222222</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="7">
-        <v>1528.0</v>
+        <v>1528</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="13" t="str">
+      <c r="M4" s="13">
+        <f t="shared" si="0"/>
+        <v>45.954680000000003</v>
+      </c>
+      <c r="N4" s="13">
         <f t="shared" si="1"/>
-        <v>45.95468</v>
-      </c>
-      <c r="N4" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>-130.00893</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>-130.00892999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"ATAPL-58328-00003")</f>
+        <v>ATAPL-58328-00003</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="12">
-        <v>41846.0</v>
+        <v>41846</v>
       </c>
       <c r="F5" s="9">
         <v>0.8634722222222222</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="7">
-        <v>1528.0</v>
+        <v>1528</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="13" t="str">
+      <c r="M5" s="13">
+        <f t="shared" si="0"/>
+        <v>45.954680000000003</v>
+      </c>
+      <c r="N5" s="13">
         <f t="shared" si="1"/>
-        <v>45.95468</v>
-      </c>
-      <c r="N5" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>-130.00893</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>-130.00892999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -721,7 +1225,7 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -737,7 +1241,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -753,7 +1257,7 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -769,7 +1273,7 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -785,7 +1289,7 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -801,7 +1305,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -817,7 +1321,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -833,7 +1337,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -849,7 +1353,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -865,7 +1369,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -881,7 +1385,7 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -897,7 +1401,7 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -913,7 +1417,7 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -929,7 +1433,7 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -946,32 +1450,34 @@
       <c r="N20" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.71"/>
-    <col customWidth="1" min="2" max="2" width="22.29"/>
-    <col customWidth="1" min="3" max="3" width="12.71"/>
-    <col customWidth="1" min="4" max="4" width="11.57"/>
-    <col customWidth="1" min="5" max="5" width="18.86"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="26.14"/>
-    <col customWidth="1" min="8" max="8" width="26.0"/>
-    <col customWidth="1" min="9" max="9" width="23.71"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1">
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -979,300 +1485,300 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="C2" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="F2" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"ATAPL-65244-090-0031")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"ATAPL-65244-090-0031")</f>
         <v>ATAPL-65244-090-0031</v>
       </c>
       <c r="C3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"SN0031")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"SN0031")</f>
         <v>SN0031</v>
       </c>
       <c r="D3" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-58316-00003")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-58316-00003")</f>
         <v>ATAPL-58316-00003</v>
       </c>
       <c r="F3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=A3,Moorings!D:D=D3))"),"5")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=A3,Moorings!D:D=D3))"),"5")</f>
         <v>5</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>23</v>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="B4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"ATAPL-65244-090-0031")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"ATAPL-65244-090-0031")</f>
         <v>ATAPL-65244-090-0031</v>
       </c>
       <c r="C4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"SN0031")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"SN0031")</f>
         <v>SN0031</v>
       </c>
-      <c r="D4" s="26">
-        <v>1.0</v>
+      <c r="D4" s="25">
+        <v>1</v>
       </c>
       <c r="E4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-58693-00003")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-58693-00003")</f>
         <v>ATAPL-58693-00003</v>
       </c>
       <c r="F4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=A4,Moorings!D:D=D4))"),"299467")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=A4,Moorings!D:D=D4))"),"299467")</f>
         <v>299467</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"ATAPL-65244-090-0031")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"ATAPL-65244-090-0031")</f>
         <v>ATAPL-65244-090-0031</v>
       </c>
       <c r="C5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"SN0031")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"SN0031")</f>
         <v>SN0031</v>
       </c>
       <c r="D5" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"ATAPL-58328-00003")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"ATAPL-58328-00003")</f>
         <v>ATAPL-58328-00003</v>
       </c>
       <c r="F5" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=A5,Moorings!D:D=D5))"),"T1075")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=A5,Moorings!D:D=D5))"),"T1075")</f>
         <v>T1075</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"")</f>
         <v/>
       </c>
       <c r="C6" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"")</f>
         <v/>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=A6,Moorings!D:D=D6))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=A6,Moorings!D:D=D6))"),"")</f>
         <v/>
       </c>
       <c r="F6" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=A6,Moorings!D:D=D6))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=A6,Moorings!D:D=D6))"),"")</f>
         <v/>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"")</f>
         <v/>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"")</f>
         <v/>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=A7,Moorings!D:D=D7))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=A7,Moorings!D:D=D7))"),"")</f>
         <v/>
       </c>
       <c r="F7" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=A7,Moorings!D:D=D7))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=A7,Moorings!D:D=D7))"),"")</f>
         <v/>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"")</f>
         <v/>
       </c>
       <c r="C8" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"")</f>
         <v/>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=A8,Moorings!D:D=D8))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=A8,Moorings!D:D=D8))"),"")</f>
         <v/>
       </c>
       <c r="F8" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=A8,Moorings!D:D=D8))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=A8,Moorings!D:D=D8))"),"")</f>
         <v/>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"")</f>
         <v/>
       </c>
       <c r="C9" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"")</f>
         <v/>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=A9,Moorings!D:D=D9))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=A9,Moorings!D:D=D9))"),"")</f>
         <v/>
       </c>
       <c r="F9" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=A9,Moorings!D:D=D9))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=A9,Moorings!D:D=D9))"),"")</f>
         <v/>
       </c>
       <c r="G9" s="22"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"")</f>
         <v/>
       </c>
       <c r="C10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"")</f>
         <v/>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=A10,Moorings!D:D=D10))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=A10,Moorings!D:D=D10))"),"")</f>
         <v/>
       </c>
       <c r="F10" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=A10,Moorings!D:D=D10))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=A10,Moorings!D:D=D10))"),"")</f>
         <v/>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="29"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
       <c r="C11" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
       <c r="F11" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
       <c r="G11" s="22"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="C12" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="F12" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=A12,Moorings!D:D=D12))"),"")</f>
         <v/>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="C13" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"")</f>
         <v/>
       </c>
       <c r="D13" s="21"/>
@@ -1280,43 +1786,43 @@
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="C14" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"")</f>
         <v/>
       </c>
       <c r="C15" s="16" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"")</f>
         <v/>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1324,10 +1830,10 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1335,703 +1841,707 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="28"/>
+      <c r="I19" s="27"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.86"/>
-    <col customWidth="1" min="2" max="2" width="17.14"/>
-    <col customWidth="1" min="3" max="3" width="31.57"/>
-    <col customWidth="1" min="4" max="4" width="7.71"/>
-    <col customWidth="1" min="5" max="5" width="21.71"/>
-    <col customWidth="1" min="6" max="6" width="9.86"/>
-    <col customWidth="1" min="7" max="7" width="11.43"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="33" t="str">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="str">
         <f>Moorings!A2</f>
         <v>ATAPL-65244-090-0031</v>
       </c>
-      <c r="B2" s="33" t="str">
-        <f>if(D2="Mooring",Moorings!B2,"")</f>
+      <c r="B2" s="32" t="str">
+        <f>IF(D2="Mooring",Moorings!B2,"")</f>
         <v>RS03CCAL-MJ03F</v>
       </c>
-      <c r="C2" s="34" t="str">
-        <f>if(D2="Sensor",Moorings!B2,"")</f>
-        <v/>
-      </c>
-      <c r="D2" s="35" t="str">
-        <f>if(ISBLANK(Moorings!B2),"",if(len(Moorings!B2)&gt;14,"Sensor","Mooring"))</f>
+      <c r="C2" s="33" t="str">
+        <f>IF(D2="Sensor",Moorings!B2,"")</f>
+        <v/>
+      </c>
+      <c r="D2" s="34" t="str">
+        <f>IF(ISBLANK(Moorings!B2),"",IF(LEN(Moorings!B2)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
-      <c r="E2" s="36" t="str">
+      <c r="E2" s="35" t="str">
         <f>Moorings!C2</f>
         <v>SN0031</v>
       </c>
-      <c r="F2" s="37" t="str">
-        <f>if(D2="Mooring",Moorings!E2,"")</f>
-        <v>7/25/2014</v>
-      </c>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="33" t="str">
-        <f>Moorings!A3</f>
+      <c r="F2" s="36">
+        <f>IF(D2="Mooring",Moorings!E2,"")</f>
+        <v>41845</v>
+      </c>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="str">
+        <f ca="1">Moorings!A3</f>
         <v>ATAPL-58316-00003</v>
       </c>
-      <c r="B3" s="33" t="str">
-        <f>if(D3="Mooring",Moorings!B3,"")</f>
-        <v/>
-      </c>
-      <c r="C3" s="33" t="str">
-        <f>if(D3="Sensor",Moorings!B3,"")</f>
+      <c r="B3" s="32" t="str">
+        <f>IF(D3="Mooring",Moorings!B3,"")</f>
+        <v/>
+      </c>
+      <c r="C3" s="32" t="str">
+        <f>IF(D3="Sensor",Moorings!B3,"")</f>
         <v>RS03CCAL-MJ03F-05-BOTPTA301</v>
       </c>
-      <c r="D3" s="35" t="str">
-        <f>if(ISBLANK(Moorings!B3),"",if(len(Moorings!B3)&gt;14,"Sensor","Mooring"))</f>
+      <c r="D3" s="34" t="str">
+        <f>IF(ISBLANK(Moorings!B3),"",IF(LEN(Moorings!B3)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E3" s="36" t="str">
+      <c r="E3" s="35">
         <f>Moorings!C3</f>
         <v>5</v>
       </c>
-      <c r="F3" s="37" t="str">
-        <f>if(D3="Mooring",Moorings!E3,"")</f>
-        <v/>
-      </c>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="33" t="str">
-        <f>Moorings!A4</f>
+      <c r="F3" s="36" t="str">
+        <f>IF(D3="Mooring",Moorings!E3,"")</f>
+        <v/>
+      </c>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="str">
+        <f ca="1">Moorings!A4</f>
         <v>ATAPL-58693-00003</v>
       </c>
-      <c r="B4" s="33" t="str">
-        <f>if(D4="Mooring",Moorings!B4,"")</f>
-        <v/>
-      </c>
-      <c r="C4" s="33" t="str">
-        <f>if(D4="Sensor",Moorings!B4,"")</f>
-        <v>RS03CCAL-MJ03F-06-HYDLFA305 </v>
-      </c>
-      <c r="D4" s="35" t="str">
-        <f>if(ISBLANK(Moorings!B4),"",if(len(Moorings!B4)&gt;14,"Sensor","Mooring"))</f>
+      <c r="B4" s="32" t="str">
+        <f>IF(D4="Mooring",Moorings!B4,"")</f>
+        <v/>
+      </c>
+      <c r="C4" s="32" t="str">
+        <f>IF(D4="Sensor",Moorings!B4,"")</f>
+        <v>RS03CCAL-MJ03F-06-HYDLFA305</v>
+      </c>
+      <c r="D4" s="34" t="str">
+        <f>IF(ISBLANK(Moorings!B4),"",IF(LEN(Moorings!B4)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E4" s="36" t="str">
+      <c r="E4" s="35">
         <f>Moorings!C4</f>
         <v>299467</v>
       </c>
-      <c r="F4" s="37" t="str">
-        <f>if(D4="Mooring",Moorings!E4,"")</f>
-        <v/>
-      </c>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="33" t="str">
-        <f>Moorings!A5</f>
+      <c r="F4" s="36" t="str">
+        <f>IF(D4="Mooring",Moorings!E4,"")</f>
+        <v/>
+      </c>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="str">
+        <f ca="1">Moorings!A5</f>
         <v>ATAPL-58328-00003</v>
       </c>
-      <c r="B5" s="33" t="str">
-        <f>if(D5="Mooring",Moorings!B5,"")</f>
-        <v/>
-      </c>
-      <c r="C5" s="33" t="str">
-        <f>if(D5="Sensor",Moorings!B5,"")</f>
+      <c r="B5" s="32" t="str">
+        <f>IF(D5="Mooring",Moorings!B5,"")</f>
+        <v/>
+      </c>
+      <c r="C5" s="32" t="str">
+        <f>IF(D5="Sensor",Moorings!B5,"")</f>
         <v>RS03CCAL-MJ03F-06-OBSBBA301</v>
       </c>
-      <c r="D5" s="35" t="str">
-        <f>if(ISBLANK(Moorings!B5),"",if(len(Moorings!B5)&gt;14,"Sensor","Mooring"))</f>
+      <c r="D5" s="34" t="str">
+        <f>IF(ISBLANK(Moorings!B5),"",IF(LEN(Moorings!B5)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E5" s="36" t="str">
+      <c r="E5" s="35" t="str">
         <f>Moorings!C5</f>
         <v>T1075</v>
       </c>
-      <c r="F5" s="37" t="str">
-        <f>if(D5="Mooring",Moorings!E5,"")</f>
-        <v/>
-      </c>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="33" t="str">
+      <c r="F5" s="36" t="str">
+        <f>IF(D5="Mooring",Moorings!E5,"")</f>
+        <v/>
+      </c>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
         <f>Moorings!A6</f>
-        <v/>
-      </c>
-      <c r="B6" s="33" t="str">
-        <f>if(D6="Mooring",Moorings!B6,"")</f>
-        <v/>
-      </c>
-      <c r="C6" s="34" t="str">
-        <f>if(D6="Sensor",Moorings!B6,"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="35" t="str">
-        <f>if(ISBLANK(Moorings!B6),"",if(len(Moorings!B6)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E6" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="B6" s="32" t="str">
+        <f>IF(D6="Mooring",Moorings!B6,"")</f>
+        <v/>
+      </c>
+      <c r="C6" s="33" t="str">
+        <f>IF(D6="Sensor",Moorings!B6,"")</f>
+        <v/>
+      </c>
+      <c r="D6" s="34" t="str">
+        <f>IF(ISBLANK(Moorings!B6),"",IF(LEN(Moorings!B6)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E6" s="35">
         <f>Moorings!C6</f>
-        <v/>
-      </c>
-      <c r="F6" s="37" t="str">
-        <f>if(D6="Mooring",Moorings!E6,"")</f>
-        <v/>
-      </c>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36" t="str">
+        <f>IF(D6="Mooring",Moorings!E6,"")</f>
+        <v/>
+      </c>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
         <f>Moorings!A7</f>
-        <v/>
-      </c>
-      <c r="B7" s="33" t="str">
-        <f>if(D7="Mooring",Moorings!B7,"")</f>
-        <v/>
-      </c>
-      <c r="C7" s="34" t="str">
-        <f>if(D7="Sensor",Moorings!B7,"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="35" t="str">
-        <f>if(ISBLANK(Moorings!B7),"",if(len(Moorings!B7)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E7" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="B7" s="32" t="str">
+        <f>IF(D7="Mooring",Moorings!B7,"")</f>
+        <v/>
+      </c>
+      <c r="C7" s="33" t="str">
+        <f>IF(D7="Sensor",Moorings!B7,"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="34" t="str">
+        <f>IF(ISBLANK(Moorings!B7),"",IF(LEN(Moorings!B7)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E7" s="35">
         <f>Moorings!C7</f>
-        <v/>
-      </c>
-      <c r="F7" s="37" t="str">
-        <f>if(D7="Mooring",Moorings!E7,"")</f>
-        <v/>
-      </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36" t="str">
+        <f>IF(D7="Mooring",Moorings!E7,"")</f>
+        <v/>
+      </c>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
         <f>Moorings!A8</f>
-        <v/>
-      </c>
-      <c r="B8" s="33" t="str">
-        <f>if(D8="Mooring",Moorings!B8,"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="34" t="str">
-        <f>if(D8="Sensor",Moorings!B8,"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="35" t="str">
-        <f>if(ISBLANK(Moorings!B8),"",if(len(Moorings!B8)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E8" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="B8" s="32" t="str">
+        <f>IF(D8="Mooring",Moorings!B8,"")</f>
+        <v/>
+      </c>
+      <c r="C8" s="33" t="str">
+        <f>IF(D8="Sensor",Moorings!B8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="34" t="str">
+        <f>IF(ISBLANK(Moorings!B8),"",IF(LEN(Moorings!B8)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E8" s="35">
         <f>Moorings!C8</f>
-        <v/>
-      </c>
-      <c r="F8" s="37" t="str">
-        <f>if(D8="Mooring",Moorings!E8,"")</f>
-        <v/>
-      </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36" t="str">
+        <f>IF(D8="Mooring",Moorings!E8,"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
         <f>Moorings!A9</f>
-        <v/>
-      </c>
-      <c r="B9" s="33" t="str">
-        <f>if(D9="Mooring",Moorings!B9,"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="34" t="str">
-        <f>if(D9="Sensor",Moorings!B9,"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="35" t="str">
-        <f>if(ISBLANK(Moorings!B9),"",if(len(Moorings!B9)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E9" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="B9" s="32" t="str">
+        <f>IF(D9="Mooring",Moorings!B9,"")</f>
+        <v/>
+      </c>
+      <c r="C9" s="33" t="str">
+        <f>IF(D9="Sensor",Moorings!B9,"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="34" t="str">
+        <f>IF(ISBLANK(Moorings!B9),"",IF(LEN(Moorings!B9)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E9" s="35">
         <f>Moorings!C9</f>
-        <v/>
-      </c>
-      <c r="F9" s="37" t="str">
-        <f>if(D9="Mooring",Moorings!E9,"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="33" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36" t="str">
+        <f>IF(D9="Mooring",Moorings!E9,"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
         <f>Moorings!A10</f>
-        <v/>
-      </c>
-      <c r="B10" s="33" t="str">
-        <f>if(D10="Mooring",Moorings!B10,"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="34" t="str">
-        <f>if(D10="Sensor",Moorings!B10,"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="35" t="str">
-        <f>if(ISBLANK(Moorings!B10),"",if(len(Moorings!B10)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E10" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="B10" s="32" t="str">
+        <f>IF(D10="Mooring",Moorings!B10,"")</f>
+        <v/>
+      </c>
+      <c r="C10" s="33" t="str">
+        <f>IF(D10="Sensor",Moorings!B10,"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="34" t="str">
+        <f>IF(ISBLANK(Moorings!B10),"",IF(LEN(Moorings!B10)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E10" s="35">
         <f>Moorings!C10</f>
-        <v/>
-      </c>
-      <c r="F10" s="37" t="str">
-        <f>if(D10="Mooring",Moorings!E10,"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="36" t="str">
+        <f>IF(D10="Mooring",Moorings!E10,"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="33"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.43"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="10.29"/>
-    <col customWidth="1" min="5" max="5" width="7.0"/>
-    <col customWidth="1" min="6" max="6" width="5.71"/>
-    <col customWidth="1" min="7" max="7" width="16.0"/>
-    <col customWidth="1" min="8" max="8" width="19.43"/>
-    <col customWidth="1" min="9" max="9" width="11.0"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="38" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("sort(unique(Moorings!B:B))"),"Ref Des")</f>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("sort(unique(Moorings!B:B))"),"Ref Des")</f>
         <v>Ref Des</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C4" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="43"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="42" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="45"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="42" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="42" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="46"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="43"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="46"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="49" t="str">
-        <f>concatenate("'",countif(B2:B22,"yes"),"/",counta(B2:B22))</f>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="45"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="48" t="str">
+        <f>CONCATENATE("'",COUNTIF(B2:B22,"yes"),"/",COUNTA(B2:B22))</f>
         <v>'3/4</v>
       </c>
-      <c r="C23" s="50" t="str">
-        <f t="shared" ref="C23:D23" si="1">concatenate("'",countif(C2:C22,"1/*")+countif(C2:C22,"2/*")*2,"/",countif(C2:C22,"*/1")+countif(C2:C22,"*/2")*2)</f>
+      <c r="C23" s="49" t="str">
+        <f t="shared" ref="C23:D23" si="0">CONCATENATE("'",COUNTIF(C2:C22,"1/*")+COUNTIF(C2:C22,"2/*")*2,"/",COUNTIF(C2:C22,"*/1")+COUNTIF(C2:C22,"*/2")*2)</f>
         <v>'4/4</v>
       </c>
-      <c r="D23" s="50" t="str">
-        <f t="shared" si="1"/>
+      <c r="D23" s="49" t="str">
+        <f t="shared" si="0"/>
         <v>'0/0</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="46"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="48" t="s">
-        <v>50</v>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="45"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="47" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>